--- a/data/trans_orig/IP07C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C349840-AB36-47D3-BB6F-EDC22AAF4D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8558B40F-39FC-4790-A489-D29EAF6F689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{22AAEDE8-9E31-4C9A-9F4C-A8FBF9E87C3E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{569B88F5-0F38-4FD8-83EF-0DC22B06E22E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="440">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>50,78%</t>
   </si>
   <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
   </si>
   <si>
     <t>52,86%</t>
   </si>
   <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
   </si>
   <si>
     <t>51,85%</t>
   </si>
   <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,28 +106,28 @@
     <t>46,11%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
   </si>
   <si>
     <t>38,69%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
   </si>
   <si>
     <t>42,28%</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -139,43 +139,46 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,84%</t>
+    <t>7,81%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>7,45%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,35%</t>
+    <t>5,03%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -202,52 +205,52 @@
     <t>50,92%</t>
   </si>
   <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
   </si>
   <si>
     <t>52,51%</t>
   </si>
   <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>48,1%</t>
   </si>
   <si>
     <t>41,52%</t>
   </si>
   <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
   </si>
   <si>
     <t>42,25%</t>
   </si>
   <si>
-    <t>38,37%</t>
+    <t>38,74%</t>
   </si>
   <si>
     <t>46,21%</t>
@@ -256,1123 +259,1105 @@
     <t>4,65%</t>
   </si>
   <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
     <t>2,84%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
   </si>
   <si>
     <t>51,13%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
   </si>
   <si>
     <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2015 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1C940D-66C8-45CA-8212-5CFBA27BCD0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56223B75-1013-487A-B899-504B05B930DA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2076,13 +2061,13 @@
         <v>683</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2091,19 +2076,19 @@
         <v>1363</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2115,10 +2100,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2130,10 +2115,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2145,10 +2130,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2148,13 @@
         <v>43224</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>69</v>
@@ -2178,13 +2163,13 @@
         <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>134</v>
@@ -2193,18 +2178,18 @@
         <v>89238</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2216,13 +2201,13 @@
         <v>110401</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -2231,13 +2216,13 @@
         <v>99973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>317</v>
@@ -2246,13 +2231,13 @@
         <v>210373</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,13 +2252,13 @@
         <v>92998</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>118</v>
@@ -2282,13 +2267,13 @@
         <v>79044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -2297,13 +2282,13 @@
         <v>172041</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2303,13 @@
         <v>10072</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -2333,13 +2318,13 @@
         <v>9763</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>31</v>
@@ -2348,13 +2333,13 @@
         <v>19835</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2354,13 @@
         <v>3361</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2384,13 +2369,13 @@
         <v>1606</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -2399,19 +2384,19 @@
         <v>4967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2423,10 +2408,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2438,7 +2423,7 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -2453,7 +2438,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>90</v>
@@ -2471,13 +2456,13 @@
         <v>216831</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>285</v>
@@ -2486,13 +2471,13 @@
         <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>612</v>
@@ -2501,13 +2486,13 @@
         <v>407216</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,7 +2644,7 @@
         <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>115</v>
@@ -2680,7 +2665,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>116</v>
@@ -2719,7 +2704,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -2731,7 +2716,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
@@ -2779,13 +2764,13 @@
         <v>49040</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -2794,13 +2779,13 @@
         <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>151</v>
@@ -2809,13 +2794,13 @@
         <v>103287</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,10 +2922,10 @@
         <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -2949,13 +2934,13 @@
         <v>16633</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -2964,10 +2949,10 @@
         <v>29503</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>150</v>
@@ -2985,13 +2970,13 @@
         <v>4040</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3000,13 +2985,13 @@
         <v>2943</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -3015,19 +3000,19 @@
         <v>6983</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>0</v>
@@ -3039,10 +3024,10 @@
         <v>32</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3051,13 +3036,13 @@
         <v>726</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3066,13 +3051,13 @@
         <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3072,13 @@
         <v>309095</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>432</v>
@@ -3102,13 +3087,13 @@
         <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>897</v>
@@ -3117,18 +3102,18 @@
         <v>599741</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3147,7 +3132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD811AF-69DB-4D59-80A6-7B79C3BA448E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39892CB-ACDF-4983-A2A4-B02690836062}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3164,7 +3149,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3271,13 +3256,13 @@
         <v>17127</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>167</v>
+        <v>29</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -3286,13 +3271,13 @@
         <v>16529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3301,13 +3286,13 @@
         <v>33656</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3307,13 @@
         <v>23671</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H5" s="7">
         <v>46</v>
@@ -3337,13 +3322,13 @@
         <v>32884</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3352,13 +3337,13 @@
         <v>56555</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3358,13 @@
         <v>2683</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -3388,13 +3373,13 @@
         <v>1477</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -3403,13 +3388,13 @@
         <v>4160</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3409,13 @@
         <v>857</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3439,13 +3424,13 @@
         <v>736</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3454,19 +3439,19 @@
         <v>1594</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -3475,13 +3460,13 @@
         <v>823</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3493,7 +3478,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>116</v>
@@ -3505,13 +3490,13 @@
         <v>823</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,13 +3511,13 @@
         <v>45162</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>73</v>
@@ -3541,13 +3526,13 @@
         <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>137</v>
@@ -3556,18 +3541,18 @@
         <v>96787</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3564,13 @@
         <v>108518</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -3594,13 +3579,13 @@
         <v>69422</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>257</v>
@@ -3609,13 +3594,13 @@
         <v>177940</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3615,13 @@
         <v>104507</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>172</v>
@@ -3645,13 +3630,13 @@
         <v>119234</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -3660,13 +3645,13 @@
         <v>223741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3666,13 @@
         <v>9330</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
@@ -3696,13 +3681,13 @@
         <v>8963</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -3711,13 +3696,13 @@
         <v>18294</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3717,13 @@
         <v>3098</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3747,13 +3732,13 @@
         <v>1427</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3762,19 +3747,19 @@
         <v>4525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -3786,10 +3771,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3801,7 +3786,7 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>89</v>
@@ -3816,7 +3801,7 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>90</v>
@@ -3834,13 +3819,13 @@
         <v>225452</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>285</v>
@@ -3849,13 +3834,13 @@
         <v>199046</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>614</v>
@@ -3864,13 +3849,13 @@
         <v>424499</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3872,13 @@
         <v>24452</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H16" s="7">
         <v>37</v>
@@ -3902,13 +3887,13 @@
         <v>25673</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M16" s="7">
         <v>74</v>
@@ -3917,13 +3902,13 @@
         <v>50125</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>67</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3923,13 @@
         <v>28107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -3953,13 +3938,13 @@
         <v>28821</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3968,13 +3953,13 @@
         <v>56928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3974,13 @@
         <v>3029</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -4004,13 +3989,13 @@
         <v>3642</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4019,13 +4004,13 @@
         <v>6670</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4025,13 @@
         <v>564</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4055,13 +4040,13 @@
         <v>1397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4070,19 +4055,19 @@
         <v>1961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -4094,10 +4079,10 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4106,13 +4091,13 @@
         <v>594</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4121,13 +4106,13 @@
         <v>594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4127,13 @@
         <v>56152</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>84</v>
@@ -4157,13 +4142,13 @@
         <v>60126</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>166</v>
@@ -4172,13 +4157,13 @@
         <v>116277</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4180,13 @@
         <v>150097</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>159</v>
@@ -4210,7 +4195,7 @@
         <v>111624</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>272</v>
@@ -4300,10 +4285,10 @@
         <v>286</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -4312,13 +4297,13 @@
         <v>14081</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -4327,13 +4312,13 @@
         <v>29123</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4333,13 @@
         <v>4519</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G25" s="7" t="s">
-        <v>296</v>
+        <v>112</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4363,13 +4348,13 @@
         <v>3560</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4378,19 +4363,19 @@
         <v>8079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -4399,13 +4384,13 @@
         <v>823</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4414,13 +4399,13 @@
         <v>594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4429,7 +4414,7 @@
         <v>1417</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>32</v>
@@ -4450,13 +4435,13 @@
         <v>326766</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4465,13 +4450,13 @@
         <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>917</v>
@@ -4480,18 +4465,18 @@
         <v>637563</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4510,7 +4495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503805B3-88EA-49C5-98EE-AF550CAFFE2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575C0F7-237D-4301-8C53-E71F6E2C59C1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4527,7 +4512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4634,13 +4619,13 @@
         <v>19097</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H4" s="7">
         <v>18</v>
@@ -4649,13 +4634,13 @@
         <v>13435</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4664,13 +4649,13 @@
         <v>32532</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,13 +4670,13 @@
         <v>15690</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>21</v>
@@ -4700,13 +4685,13 @@
         <v>13612</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4715,10 +4700,10 @@
         <v>29302</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>323</v>
@@ -4766,13 +4751,13 @@
         <v>4792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>122</v>
+        <v>329</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,10 +4775,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4802,13 +4787,13 @@
         <v>617</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4817,19 +4802,19 @@
         <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -4841,10 +4826,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4856,10 +4841,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4871,10 +4856,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4889,13 +4874,13 @@
         <v>36638</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>44</v>
@@ -4904,13 +4889,13 @@
         <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4919,18 +4904,18 @@
         <v>67244</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4942,13 +4927,13 @@
         <v>127474</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -4957,13 +4942,13 @@
         <v>126584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -4972,13 +4957,13 @@
         <v>254058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4978,13 @@
         <v>92462</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>147</v>
@@ -5008,13 +4993,13 @@
         <v>100815</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -5023,13 +5008,13 @@
         <v>193277</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,7 +5029,7 @@
         <v>14179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>357</v>
@@ -5080,7 +5065,7 @@
         <v>363</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>364</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5080,13 @@
         <v>2056</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5110,13 +5095,13 @@
         <v>3488</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5125,19 +5110,19 @@
         <v>5544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -5146,13 +5131,13 @@
         <v>891</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5161,13 +5146,13 @@
         <v>1015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5176,13 +5161,13 @@
         <v>1907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5182,13 @@
         <v>237063</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
         <v>349</v>
@@ -5212,13 +5197,13 @@
         <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>673</v>
@@ -5227,13 +5212,13 @@
         <v>481061</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,13 +5235,13 @@
         <v>47882</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5265,13 +5250,13 @@
         <v>35409</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>114</v>
@@ -5280,13 +5265,13 @@
         <v>83290</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5286,13 @@
         <v>24945</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>44</v>
@@ -5316,13 +5301,13 @@
         <v>30583</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -5331,13 +5316,13 @@
         <v>55529</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5337,13 @@
         <v>2100</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>7</v>
@@ -5367,10 +5352,10 @@
         <v>4460</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>395</v>
@@ -5406,7 +5391,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>399</v>
@@ -5421,10 +5406,10 @@
         <v>32</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5436,7 +5421,7 @@
         <v>32</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>400</v>
@@ -5445,7 +5430,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
@@ -5460,7 +5445,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>402</v>
+        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5469,13 +5454,13 @@
         <v>638</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5484,13 +5469,13 @@
         <v>1213</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>406</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5490,13 @@
         <v>75502</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H21" s="7">
         <v>100</v>
@@ -5520,13 +5505,13 @@
         <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>205</v>
@@ -5535,13 +5520,13 @@
         <v>146592</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5543,13 @@
         <v>194453</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>245</v>
@@ -5573,13 +5558,13 @@
         <v>175427</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -5588,13 +5573,13 @@
         <v>369880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5594,13 @@
         <v>133098</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>212</v>
@@ -5624,13 +5609,13 @@
         <v>145010</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M23" s="7">
         <v>396</v>
@@ -5639,13 +5624,13 @@
         <v>278108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>422</v>
+        <v>205</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5645,13 @@
         <v>18129</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>42</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -5675,13 +5660,13 @@
         <v>19498</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M24" s="7">
         <v>55</v>
@@ -5690,13 +5675,13 @@
         <v>37627</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5696,13 @@
         <v>2056</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -5726,13 +5711,13 @@
         <v>4105</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>436</v>
+        <v>268</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5741,19 +5726,19 @@
         <v>6162</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -5762,13 +5747,13 @@
         <v>1467</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -5777,13 +5762,13 @@
         <v>1653</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5792,13 +5777,13 @@
         <v>3120</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5798,13 @@
         <v>349203</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
         <v>493</v>
@@ -5828,13 +5813,13 @@
         <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>973</v>
@@ -5843,18 +5828,18 @@
         <v>694897</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8558B40F-39FC-4790-A489-D29EAF6F689B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E90304C9-7FD6-43DB-929B-3E20B7E3AC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{569B88F5-0F38-4FD8-83EF-0DC22B06E22E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A09F8BC-366E-47B5-A9AB-DA1380A0039B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="439">
   <si>
     <t>Menores según frecuencia de sentirse satisfecho con su vida en 2007 (Tasa respuesta: 42,63%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,112 +73,112 @@
     <t>Muchísimo</t>
   </si>
   <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
     <t>50,78%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>62,98%</t>
   </si>
   <si>
     <t>51,85%</t>
   </si>
   <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>Mucho</t>
   </si>
   <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>59,47%</t>
   </si>
   <si>
     <t>42,28%</t>
   </si>
   <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
   </si>
   <si>
     <t>Moderadamente</t>
   </si>
   <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>7,79%</t>
   </si>
   <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>Poco</t>
   </si>
   <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>1,53%</t>
   </si>
   <si>
-    <t>5,03%</t>
+    <t>4,95%</t>
   </si>
   <si>
     <t>Nada</t>
@@ -187,12 +187,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
@@ -202,1162 +202,1159 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>51,66%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>42,89%</t>
   </si>
   <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>48,1%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
   </si>
   <si>
     <t>3,01%</t>
   </si>
   <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse satisfecho con su vida en 2016 (Tasa respuesta: 45,77%)</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
 </sst>
 </file>
@@ -1769,7 +1766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56223B75-1013-487A-B899-504B05B930DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D082628-0D59-4E26-B759-A67A6A4856F8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,10 +1884,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>21947</v>
+        <v>24324</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1902,10 +1899,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>24324</v>
+        <v>21947</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1938,10 +1935,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>19930</v>
+        <v>17801</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1953,10 +1950,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>17801</v>
+        <v>19930</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1989,10 +1986,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>667</v>
+        <v>3206</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2004,10 +2001,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>3206</v>
+        <v>667</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2043,13 +2040,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>42</v>
@@ -2058,13 +2055,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>44</v>
@@ -2079,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>46</v>
@@ -2097,7 +2094,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>48</v>
@@ -2112,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>48</v>
@@ -2127,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>48</v>
@@ -2142,25 +2139,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -2195,10 +2192,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="D10" s="7">
-        <v>110401</v>
+        <v>99973</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>54</v>
@@ -2210,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I10" s="7">
-        <v>99973</v>
+        <v>110401</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>57</v>
@@ -2246,10 +2243,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="D11" s="7">
-        <v>92998</v>
+        <v>79044</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>63</v>
@@ -2261,10 +2258,10 @@
         <v>65</v>
       </c>
       <c r="H11" s="7">
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="I11" s="7">
-        <v>79044</v>
+        <v>92998</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>66</v>
@@ -2297,10 +2294,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>10072</v>
+        <v>9763</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>72</v>
@@ -2312,10 +2309,10 @@
         <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>9763</v>
+        <v>10072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>75</v>
@@ -2348,31 +2345,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3361</v>
+        <v>1606</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>3361</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1606</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>85</v>
@@ -2405,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2420,13 +2417,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -2435,13 +2432,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,25 +2447,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>190386</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>216831</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190386</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -2497,40 +2494,40 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25678</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7">
         <v>39</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25925</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="7">
-        <v>37</v>
-      </c>
-      <c r="I16" s="7">
-        <v>25678</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>76</v>
@@ -2539,13 +2536,13 @@
         <v>51603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,34 +2551,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7">
+        <v>23524</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="7">
         <v>31</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>20985</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="7">
-        <v>34</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23524</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -2590,13 +2587,13 @@
         <v>44509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,34 +2602,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3665</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" s="7">
         <v>3</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>2131</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3665</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>8</v>
@@ -2641,13 +2638,13 @@
         <v>5795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,34 +2653,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>654</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="J19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>654</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -2692,13 +2689,13 @@
         <v>654</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,34 +2704,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>726</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>726</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2743,13 +2740,13 @@
         <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,25 +2755,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -2811,34 +2808,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>223</v>
+      </c>
+      <c r="D22" s="7">
+        <v>149975</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
         <v>240</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>158272</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="7">
-        <v>223</v>
-      </c>
-      <c r="I22" s="7">
-        <v>149975</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>463</v>
@@ -2847,13 +2844,13 @@
         <v>308248</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,34 +2859,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>179</v>
+      </c>
+      <c r="D23" s="7">
+        <v>120368</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="7">
         <v>199</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>133913</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="7">
-        <v>179</v>
-      </c>
-      <c r="I23" s="7">
-        <v>120368</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>378</v>
@@ -2898,13 +2895,13 @@
         <v>254281</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,34 +2910,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>25</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16633</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" s="7">
         <v>20</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>12870</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="7">
-        <v>25</v>
-      </c>
-      <c r="I24" s="7">
-        <v>16633</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>45</v>
@@ -2949,13 +2946,13 @@
         <v>29503</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,28 +2961,28 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2943</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4040</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="7">
-        <v>4</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2943</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>155</v>
@@ -3003,10 +3000,10 @@
         <v>157</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,34 +3012,34 @@
         <v>47</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>726</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>726</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -3051,13 +3048,13 @@
         <v>726</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,25 +3063,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>432</v>
+      </c>
+      <c r="D27" s="7">
+        <v>290646</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>309095</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>432</v>
-      </c>
-      <c r="I27" s="7">
-        <v>290646</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3132,7 +3129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39892CB-ACDF-4983-A2A4-B02690836062}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F5A3F8-89E3-4F6B-8BE3-48B96B768176}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3149,7 +3146,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3250,34 +3247,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>16529</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="7">
         <v>25</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>17127</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="7">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7">
-        <v>16529</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3286,13 +3283,13 @@
         <v>33656</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,34 +3298,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>46</v>
+      </c>
+      <c r="D5" s="7">
+        <v>32884</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="7">
         <v>33</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>23671</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="H5" s="7">
-        <v>46</v>
-      </c>
-      <c r="I5" s="7">
-        <v>32884</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>79</v>
@@ -3337,13 +3334,13 @@
         <v>56555</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,34 +3349,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1477</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2683</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="J6" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="K6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="7">
-        <v>1477</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -3388,13 +3385,13 @@
         <v>4160</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,31 +3403,31 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>857</v>
+        <v>736</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>736</v>
+        <v>857</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3439,13 +3436,13 @@
         <v>1594</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,34 +3451,34 @@
         <v>47</v>
       </c>
       <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>823</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="J8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -3490,13 +3487,13 @@
         <v>823</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,25 +3502,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -3558,13 +3555,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>159</v>
+        <v>98</v>
       </c>
       <c r="D10" s="7">
-        <v>108518</v>
+        <v>69422</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>201</v>
@@ -3573,10 +3570,10 @@
         <v>202</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="I10" s="7">
-        <v>69422</v>
+        <v>108518</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>203</v>
@@ -3609,34 +3606,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>104507</v>
+        <v>119235</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H11" s="7">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>119234</v>
+        <v>104507</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M11" s="7">
         <v>323</v>
@@ -3645,13 +3642,13 @@
         <v>223741</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,34 +3657,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>13</v>
+      </c>
+      <c r="D12" s="7">
+        <v>8963</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="7">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>9330</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H12" s="7">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7">
-        <v>8963</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>27</v>
@@ -3696,13 +3693,13 @@
         <v>18294</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,34 +3708,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>2</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1427</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="7">
         <v>5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>3098</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1427</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -3747,13 +3744,13 @@
         <v>4525</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,13 +3765,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3783,13 +3780,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3798,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,25 +3810,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>199047</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>329</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>225452</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>199046</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3869,7 +3866,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>24452</v>
+        <v>25673</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>234</v>
@@ -3884,7 +3881,7 @@
         <v>37</v>
       </c>
       <c r="I16" s="7">
-        <v>25673</v>
+        <v>24452</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>237</v>
@@ -3905,10 +3902,10 @@
         <v>240</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3917,34 +3914,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>39</v>
+      </c>
+      <c r="D17" s="7">
+        <v>28821</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="7">
         <v>40</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>28107</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H17" s="7">
-        <v>39</v>
-      </c>
-      <c r="I17" s="7">
-        <v>28821</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3953,13 +3950,13 @@
         <v>56928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,34 +3965,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3642</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>3029</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="7">
-        <v>5</v>
-      </c>
-      <c r="I18" s="7">
-        <v>3642</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M18" s="7">
         <v>9</v>
@@ -4004,13 +4001,13 @@
         <v>6670</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,34 +4016,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>2</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1397</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>564</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1397</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4055,13 +4052,13 @@
         <v>1961</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,34 +4067,34 @@
         <v>47</v>
       </c>
       <c r="C20" s="7">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>594</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H20" s="7">
         <v>0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>594</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -4106,13 +4103,13 @@
         <v>594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,25 +4118,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>84</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60126</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>84</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60126</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -4174,34 +4171,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>159</v>
+      </c>
+      <c r="D22" s="7">
+        <v>111624</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="7">
         <v>221</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>150097</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H22" s="7">
-        <v>159</v>
-      </c>
-      <c r="I22" s="7">
-        <v>111624</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -4210,13 +4207,13 @@
         <v>261720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,34 +4222,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>257</v>
+      </c>
+      <c r="D23" s="7">
+        <v>180939</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>224</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>156285</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="7">
-        <v>257</v>
-      </c>
-      <c r="I23" s="7">
-        <v>180939</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M23" s="7">
         <v>481</v>
@@ -4261,13 +4258,13 @@
         <v>337223</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,34 +4273,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>20</v>
+      </c>
+      <c r="D24" s="7">
+        <v>14081</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H24" s="7">
         <v>22</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15042</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="H24" s="7">
-        <v>20</v>
-      </c>
-      <c r="I24" s="7">
-        <v>14081</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="M24" s="7">
         <v>42</v>
@@ -4312,13 +4309,13 @@
         <v>29123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,34 +4324,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3560</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H25" s="7">
         <v>7</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4519</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3560</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -4363,13 +4360,13 @@
         <v>8079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,31 +4378,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>823</v>
+        <v>594</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>594</v>
+        <v>823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -4414,13 +4411,13 @@
         <v>1417</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,25 +4426,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>442</v>
+      </c>
+      <c r="D27" s="7">
+        <v>310798</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>475</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326766</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>442</v>
-      </c>
-      <c r="I27" s="7">
-        <v>310798</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -4476,7 +4473,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4495,7 +4492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F575C0F7-237D-4301-8C53-E71F6E2C59C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8324F3-C8E0-4E06-89E0-AB32019B6D69}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4512,7 +4509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4613,34 +4610,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>18</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13435</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H4" s="7">
         <v>26</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>19097</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="7">
-        <v>18</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13435</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -4649,13 +4646,13 @@
         <v>32532</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,34 +4661,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13612</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H5" s="7">
         <v>22</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>15690</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H5" s="7">
-        <v>21</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13612</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4700,13 +4697,13 @@
         <v>29302</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,34 +4712,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2942</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>1850</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H6" s="7">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2942</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -4751,13 +4748,13 @@
         <v>4792</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>330</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,34 +4763,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>617</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>617</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -4802,13 +4799,13 @@
         <v>617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4820,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4838,13 +4835,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4853,13 +4850,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,25 +4865,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>52</v>
@@ -4921,34 +4918,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>179</v>
+      </c>
+      <c r="D10" s="7">
+        <v>126584</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="H10" s="7">
         <v>172</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>127474</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H10" s="7">
-        <v>179</v>
-      </c>
-      <c r="I10" s="7">
-        <v>126584</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -4957,13 +4954,13 @@
         <v>254058</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4972,34 +4969,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>147</v>
+      </c>
+      <c r="D11" s="7">
+        <v>100815</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="H11" s="7">
         <v>127</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>92462</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="H11" s="7">
-        <v>147</v>
-      </c>
-      <c r="I11" s="7">
-        <v>100815</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M11" s="7">
         <v>274</v>
@@ -5008,13 +5005,13 @@
         <v>193277</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,34 +5020,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>17</v>
+      </c>
+      <c r="D12" s="7">
+        <v>12096</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="H12" s="7">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>14179</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="H12" s="7">
-        <v>17</v>
-      </c>
-      <c r="I12" s="7">
-        <v>12096</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>359</v>
+        <v>149</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M12" s="7">
         <v>38</v>
@@ -5059,13 +5056,13 @@
         <v>26274</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,34 +5071,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3488</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2056</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3488</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5110,13 +5107,13 @@
         <v>5544</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5128,31 +5125,31 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>891</v>
+        <v>1015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>159</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1015</v>
+        <v>891</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5161,13 +5158,13 @@
         <v>1907</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>372</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,25 +5173,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>349</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243998</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="7">
         <v>324</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>237063</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="7">
-        <v>349</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>52</v>
@@ -5223,16 +5220,16 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D16" s="7">
-        <v>47882</v>
+        <v>35409</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>373</v>
@@ -5244,10 +5241,10 @@
         <v>375</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>35409</v>
+        <v>47882</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>376</v>
@@ -5280,10 +5277,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7">
-        <v>24945</v>
+        <v>30583</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>382</v>
@@ -5295,10 +5292,10 @@
         <v>384</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I17" s="7">
-        <v>30583</v>
+        <v>24945</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>385</v>
@@ -5331,25 +5328,25 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>2100</v>
+        <v>4460</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>327</v>
+        <v>391</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>391</v>
+        <v>156</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>392</v>
       </c>
       <c r="H18" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>4460</v>
+        <v>2100</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>393</v>
@@ -5370,10 +5367,10 @@
         <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5385,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5403,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>191</v>
+        <v>398</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5418,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5436,28 +5433,28 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>575</v>
+        <v>638</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>638</v>
+        <v>575</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>402</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>403</v>
@@ -5472,10 +5469,10 @@
         <v>404</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>289</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,25 +5481,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7">
+        <v>71090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="7">
-        <v>100</v>
-      </c>
-      <c r="I21" s="7">
-        <v>71090</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>52</v>
@@ -5537,34 +5534,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>245</v>
+      </c>
+      <c r="D22" s="7">
+        <v>175427</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H22" s="7">
         <v>264</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>194453</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H22" s="7">
-        <v>245</v>
-      </c>
-      <c r="I22" s="7">
-        <v>175427</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
         <v>509</v>
@@ -5573,13 +5570,13 @@
         <v>369880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5588,34 +5585,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>212</v>
+      </c>
+      <c r="D23" s="7">
+        <v>145010</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="H23" s="7">
         <v>184</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>133098</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="H23" s="7">
-        <v>212</v>
-      </c>
-      <c r="I23" s="7">
-        <v>145010</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>207</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>234</v>
       </c>
       <c r="M23" s="7">
         <v>396</v>
@@ -5624,7 +5621,7 @@
         <v>278108</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>205</v>
+        <v>419</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>420</v>
@@ -5639,10 +5636,10 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>18129</v>
+        <v>19498</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>422</v>
@@ -5654,10 +5651,10 @@
         <v>424</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I24" s="7">
-        <v>19498</v>
+        <v>18129</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>425</v>
@@ -5681,7 +5678,7 @@
         <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>430</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,34 +5687,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>2056</v>
+        <v>4105</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2056</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4105</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>9</v>
@@ -5726,13 +5723,13 @@
         <v>6162</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,31 +5741,31 @@
         <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>1467</v>
+        <v>1653</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>369</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>1653</v>
+        <v>1467</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>232</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>437</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -5777,13 +5774,13 @@
         <v>3120</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,25 +5789,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>493</v>
+      </c>
+      <c r="D27" s="7">
+        <v>345694</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="7">
         <v>480</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>349203</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="7">
-        <v>493</v>
-      </c>
-      <c r="I27" s="7">
-        <v>345694</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>52</v>
@@ -5839,7 +5836,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
